--- a/biology/Zoologie/Gaterin/Gaterin.xlsx
+++ b/biology/Zoologie/Gaterin/Gaterin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaterin est un nom vernaculaire qui désigne en français plusieurs espèces du genre Plectorhinchus, mais pas toutes les espèces de ce genre.
 Comme souvent en Ichtyologie, chacun de ses noms vernaculaires peut être ambigu et décrire plusieurs espèces ou, au contraire, une espèce peut avoir plusieurs noms vernaculaires.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces nommées « gaterin »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Note: certains noms sont en commun.
 Gaterin à bandes diagonales - Plectorhinchus lineatus
